--- a/Code/Results/Cases/Case_1_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.38477508435384</v>
+        <v>18.69052045650762</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.193282283823089</v>
+        <v>9.78185833145368</v>
       </c>
       <c r="E2">
-        <v>11.02548552161527</v>
+        <v>15.37272156341437</v>
       </c>
       <c r="F2">
-        <v>24.19855607077924</v>
+        <v>33.08862196407312</v>
       </c>
       <c r="G2">
-        <v>2.061864430536835</v>
+        <v>3.643637610975123</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.672715873505462</v>
+        <v>11.10974437661918</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.61230305178042</v>
+        <v>10.91022497406259</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.84025460596595</v>
+        <v>18.82105546858823</v>
       </c>
       <c r="O2">
-        <v>18.78513317710527</v>
+        <v>24.9151233548535</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34217119449497</v>
+        <v>18.43430649547129</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.202237478438944</v>
+        <v>9.794295355105081</v>
       </c>
       <c r="E3">
-        <v>10.9654477048744</v>
+        <v>15.37402584538306</v>
       </c>
       <c r="F3">
-        <v>23.51467853992558</v>
+        <v>33.10013831192594</v>
       </c>
       <c r="G3">
-        <v>2.068516356634132</v>
+        <v>3.64623275787446</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.644357000119122</v>
+        <v>11.11235173796157</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.8759159179889</v>
+        <v>10.71875143154843</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.86439001896067</v>
+        <v>18.84925070062296</v>
       </c>
       <c r="O3">
-        <v>18.17154031584674</v>
+        <v>24.89717123379022</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67442657924233</v>
+        <v>18.27801891136128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.208969096656554</v>
+        <v>9.802526863294304</v>
       </c>
       <c r="E4">
-        <v>10.93015228898464</v>
+        <v>15.37581688423965</v>
       </c>
       <c r="F4">
-        <v>23.10979550059976</v>
+        <v>33.11638535905057</v>
       </c>
       <c r="G4">
-        <v>2.072727479502216</v>
+        <v>3.647912149342831</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.627949436091165</v>
+        <v>11.11455741830461</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.39803249876707</v>
+        <v>10.6004293971159</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.88396249511418</v>
+        <v>18.86879421271721</v>
       </c>
       <c r="O4">
-        <v>17.80263175196808</v>
+        <v>24.89288586044524</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.3956044623176</v>
+        <v>18.21466068635279</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.212015793272847</v>
+        <v>9.806031285499316</v>
       </c>
       <c r="E5">
-        <v>10.91616980731011</v>
+        <v>15.37679709219353</v>
       </c>
       <c r="F5">
-        <v>22.94872275874779</v>
+        <v>33.12531033098262</v>
       </c>
       <c r="G5">
-        <v>2.07447634150615</v>
+        <v>3.648618201994913</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.621518189965633</v>
+        <v>11.11560904730148</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.19681887723242</v>
+        <v>10.55207803656423</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.89310975288155</v>
+        <v>18.87732049113218</v>
       </c>
       <c r="O5">
-        <v>17.6544410923987</v>
+        <v>24.89283464529509</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34890854421064</v>
+        <v>18.20416213271962</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.212539844306034</v>
+        <v>9.806622263505705</v>
       </c>
       <c r="E6">
-        <v>10.91387241141802</v>
+        <v>15.37697501419007</v>
       </c>
       <c r="F6">
-        <v>22.9222175597555</v>
+        <v>33.12693136001691</v>
       </c>
       <c r="G6">
-        <v>2.07476874513238</v>
+        <v>3.648736753443352</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.620465751042974</v>
+        <v>11.11579291910952</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.16301679390842</v>
+        <v>10.54404288721049</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.89469870663881</v>
+        <v>18.87877025385351</v>
       </c>
       <c r="O6">
-        <v>17.62996862353977</v>
+        <v>24.89292852306718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.67069312323845</v>
+        <v>18.2771630087646</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.209008964857354</v>
+        <v>9.802573517249195</v>
       </c>
       <c r="E7">
-        <v>10.92996208562736</v>
+        <v>15.37582908825207</v>
       </c>
       <c r="F7">
-        <v>23.10760716015686</v>
+        <v>33.11649640020968</v>
       </c>
       <c r="G7">
-        <v>2.072750931312256</v>
+        <v>3.647921583511941</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.627861666734413</v>
+        <v>11.11457098131693</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.39534506045491</v>
+        <v>10.59977778210158</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.88408114669324</v>
+        <v>18.86890692371</v>
       </c>
       <c r="O7">
-        <v>17.80062429662704</v>
+        <v>24.89287830609027</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.03112928966713</v>
+        <v>18.60200728900038</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.196109980607361</v>
+        <v>9.786023319167425</v>
       </c>
       <c r="E8">
-        <v>11.00446288223053</v>
+        <v>15.37296657840088</v>
       </c>
       <c r="F8">
-        <v>23.95972539777682</v>
+        <v>33.09068682916628</v>
       </c>
       <c r="G8">
-        <v>2.064132255611884</v>
+        <v>3.64451461953177</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.662730545792193</v>
+        <v>11.11051831672231</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.3637358347186</v>
+        <v>10.84439515470271</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.84757534351893</v>
+        <v>18.83031463922149</v>
       </c>
       <c r="O8">
-        <v>18.57204012061804</v>
+        <v>24.90753611011766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.47262812942221</v>
+        <v>19.2440522863444</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.180927040504975</v>
+        <v>9.75827422859083</v>
       </c>
       <c r="E9">
-        <v>11.16272539928489</v>
+        <v>15.37515074120853</v>
       </c>
       <c r="F9">
-        <v>25.74350055672017</v>
+        <v>33.11296295737508</v>
       </c>
       <c r="G9">
-        <v>2.048193656446594</v>
+        <v>3.63851238060577</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.73898380893087</v>
+        <v>11.10733775656572</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.05900925715754</v>
+        <v>11.31569365671576</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.81481446407077</v>
+        <v>18.77229740638588</v>
       </c>
       <c r="O9">
-        <v>20.13991005897384</v>
+        <v>24.98963757735438</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.12127854890615</v>
+        <v>19.71466812311204</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.176448205044938</v>
+        <v>9.740733682214438</v>
       </c>
       <c r="E10">
-        <v>11.28607062237482</v>
+        <v>15.38142940715087</v>
       </c>
       <c r="F10">
-        <v>27.11461799665209</v>
+        <v>33.17378474925947</v>
       </c>
       <c r="G10">
-        <v>2.037005410263244</v>
+        <v>3.634511811515067</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.799684984836055</v>
+        <v>11.10786461600533</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.18156411519513</v>
+        <v>11.65375535510399</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.81600219310824</v>
+        <v>18.74038024417421</v>
       </c>
       <c r="O10">
-        <v>21.31698983613942</v>
+        <v>25.08226700299093</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83893859964071</v>
+        <v>19.92766688003119</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.175991732496008</v>
+        <v>9.733367505365297</v>
       </c>
       <c r="E11">
-        <v>11.34365255059575</v>
+        <v>15.38528318924443</v>
       </c>
       <c r="F11">
-        <v>27.75003671157666</v>
+        <v>33.21107930885669</v>
       </c>
       <c r="G11">
-        <v>2.032013317934727</v>
+        <v>3.632779753137218</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.828291398684227</v>
+        <v>11.10871693483325</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.66593989488901</v>
+        <v>11.80515549335509</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.82238544730018</v>
+        <v>18.72817238924528</v>
       </c>
       <c r="O11">
-        <v>21.8565301499804</v>
+        <v>25.13134645251834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.10601363210136</v>
+        <v>20.00809827319289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.176058825352023</v>
+        <v>9.730665920756898</v>
       </c>
       <c r="E12">
-        <v>11.36566397619964</v>
+        <v>15.38688442491262</v>
       </c>
       <c r="F12">
-        <v>27.99223344846109</v>
+        <v>33.22658093434428</v>
       </c>
       <c r="G12">
-        <v>2.030135566123598</v>
+        <v>3.632136422564101</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.839264828664653</v>
+        <v>11.10912698153891</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.8456199146955</v>
+        <v>11.86209579518593</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.82567343680309</v>
+        <v>18.72388081860122</v>
       </c>
       <c r="O12">
-        <v>22.0613388719042</v>
+        <v>25.15092105378349</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.04870311047636</v>
+        <v>19.99078710805588</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.176033486161637</v>
+        <v>9.731243854578979</v>
       </c>
       <c r="E13">
-        <v>11.3609143157119</v>
+        <v>15.38653328463829</v>
       </c>
       <c r="F13">
-        <v>27.94000328259627</v>
+        <v>33.22318115268625</v>
       </c>
       <c r="G13">
-        <v>2.030539434258118</v>
+        <v>3.632274417648044</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.836895270819384</v>
+        <v>11.10903480126886</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.80708842574496</v>
+        <v>11.8498508466012</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.82492608372956</v>
+        <v>18.72479036929783</v>
       </c>
       <c r="O13">
-        <v>22.017208731097</v>
+        <v>25.14666147208161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86100511182815</v>
+        <v>19.93428895567378</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.175992365478908</v>
+        <v>9.733143486120397</v>
       </c>
       <c r="E14">
-        <v>11.34545933400499</v>
+        <v>15.38541208918039</v>
       </c>
       <c r="F14">
-        <v>27.76993127644023</v>
+        <v>33.21232703606757</v>
       </c>
       <c r="G14">
-        <v>2.031858589004597</v>
+        <v>3.632726574552621</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.829191377964293</v>
+        <v>11.10874892481877</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.68079705843242</v>
+        <v>11.80984812437031</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.8226383216973</v>
+        <v>18.72781268624901</v>
       </c>
       <c r="O14">
-        <v>21.87337036214347</v>
+        <v>25.13293709635976</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.7454234491525</v>
+        <v>19.89965064508526</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.175998827291331</v>
+        <v>9.734318492942197</v>
       </c>
       <c r="E15">
-        <v>11.33601945080961</v>
+        <v>15.38474375631184</v>
       </c>
       <c r="F15">
-        <v>27.66596002523478</v>
+        <v>33.20585797612248</v>
       </c>
       <c r="G15">
-        <v>2.032668213470591</v>
+        <v>3.633005167745741</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.824490802960411</v>
+        <v>11.10858516111755</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.60295372297005</v>
+        <v>11.78529290102325</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.82135132781899</v>
+        <v>18.72970705169926</v>
       </c>
       <c r="O15">
-        <v>21.78532762410673</v>
+        <v>25.12465906373698</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.07372351246097</v>
+        <v>19.70072022186836</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.17651089240386</v>
+        <v>9.74122738759284</v>
       </c>
       <c r="E16">
-        <v>11.28233665520288</v>
+        <v>15.38119749478643</v>
       </c>
       <c r="F16">
-        <v>27.07331774288278</v>
+        <v>33.17154075607965</v>
       </c>
       <c r="G16">
-        <v>2.037333502089032</v>
+        <v>3.634626767112914</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.79783529477193</v>
+        <v>11.10782117438627</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.14938319944955</v>
+        <v>11.64380878084645</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.815705200044</v>
+        <v>18.74122447464043</v>
       </c>
       <c r="O16">
-        <v>21.28180342940429</v>
+        <v>25.0791985002446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.65334401938419</v>
+        <v>19.57835376990933</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.177238444364909</v>
+        <v>9.745622561334304</v>
       </c>
       <c r="E17">
-        <v>11.24977693958331</v>
+        <v>15.37927638390223</v>
       </c>
       <c r="F17">
-        <v>26.71266415449685</v>
+        <v>33.15295057171026</v>
       </c>
       <c r="G17">
-        <v>2.040219532634241</v>
+        <v>3.635644011535038</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.781735856386211</v>
+        <v>11.10750883745862</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.86442576891724</v>
+        <v>11.55636642199453</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.81375946291186</v>
+        <v>18.74888127919852</v>
       </c>
       <c r="O17">
-        <v>20.97388067116886</v>
+        <v>25.05308197035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.40851163393564</v>
+        <v>19.50787361105377</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.177804880281199</v>
+        <v>9.748208277529802</v>
       </c>
       <c r="E18">
-        <v>11.23118823139824</v>
+        <v>15.37826540446192</v>
       </c>
       <c r="F18">
-        <v>26.50633099991254</v>
+        <v>33.14316449370542</v>
       </c>
       <c r="G18">
-        <v>2.041888766450557</v>
+        <v>3.636237373631775</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.772569470972376</v>
+        <v>11.10738690380158</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.69804968189582</v>
+        <v>11.50585007018162</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.81318840576823</v>
+        <v>18.7535029006307</v>
       </c>
       <c r="O18">
-        <v>20.79715963943472</v>
+        <v>25.03871445927373</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.32509484796439</v>
+        <v>19.48399555149814</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.178021719969065</v>
+        <v>9.749093681819474</v>
       </c>
       <c r="E19">
-        <v>11.22491842175219</v>
+        <v>15.37793929454065</v>
       </c>
       <c r="F19">
-        <v>26.43666350141509</v>
+        <v>33.1400069230507</v>
       </c>
       <c r="G19">
-        <v>2.04245557180501</v>
+        <v>3.636439698247918</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.769482029514553</v>
+        <v>11.10735555600121</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.64129129453692</v>
+        <v>11.48870952552934</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.81308827243538</v>
+        <v>18.75510511337101</v>
       </c>
       <c r="O19">
-        <v>20.73739473518703</v>
+        <v>25.03396244634661</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.69840924820147</v>
+        <v>19.59139056876307</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.177145594757477</v>
+        <v>9.745148715361989</v>
       </c>
       <c r="E20">
-        <v>11.25322865420972</v>
+        <v>15.37947117275112</v>
       </c>
       <c r="F20">
-        <v>26.75094278069708</v>
+        <v>33.15483574179868</v>
       </c>
       <c r="G20">
-        <v>2.039911360436133</v>
+        <v>3.635534868695304</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.783439998779689</v>
+        <v>11.10753611884896</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.89501599349147</v>
+        <v>11.56569812785065</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.81390964732297</v>
+        <v>18.74804368325102</v>
       </c>
       <c r="O20">
-        <v>21.0066201530795</v>
+        <v>25.05579449064688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.91626398160949</v>
+        <v>19.95089053212854</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.175997823138771</v>
+        <v>9.732583137377905</v>
       </c>
       <c r="E21">
-        <v>11.34999327232746</v>
+        <v>15.38573757313715</v>
       </c>
       <c r="F21">
-        <v>27.81984344226508</v>
+        <v>33.21547777816394</v>
       </c>
       <c r="G21">
-        <v>2.031470789599675</v>
+        <v>3.632593424695771</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.831450391284996</v>
+        <v>11.10883053106303</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.71799315139519</v>
+        <v>11.82160889689477</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.8232864114397</v>
+        <v>18.72691597662455</v>
       </c>
       <c r="O21">
-        <v>21.91560629529002</v>
+        <v>25.13694150770486</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.68487822052676</v>
+        <v>20.18449269115672</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.176653326250588</v>
+        <v>9.724882571674714</v>
       </c>
       <c r="E22">
-        <v>11.4144358556706</v>
+        <v>15.39065933824172</v>
       </c>
       <c r="F22">
-        <v>28.52759621003425</v>
+        <v>33.26314503320802</v>
       </c>
       <c r="G22">
-        <v>2.026027374433812</v>
+        <v>3.630744213609582</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.863647956290951</v>
+        <v>11.11018492681403</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.23406213557199</v>
+        <v>11.98655789169028</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.83450517079882</v>
+        <v>18.71503821133511</v>
       </c>
       <c r="O22">
-        <v>22.51255200428654</v>
+        <v>25.19573691848374</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.27716202714201</v>
+        <v>20.05996115704881</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.176170266794434</v>
+        <v>9.728945792855846</v>
       </c>
       <c r="E23">
-        <v>11.37993319764269</v>
+        <v>15.3879574152683</v>
       </c>
       <c r="F23">
-        <v>28.14904453531203</v>
+        <v>33.236971161281</v>
       </c>
       <c r="G23">
-        <v>2.028926433156859</v>
+        <v>3.631724496969514</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.846389063331875</v>
+        <v>11.10941580898575</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.96060723721386</v>
+        <v>11.89874764918817</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.82804137396041</v>
+        <v>18.72120133810091</v>
       </c>
       <c r="O23">
-        <v>22.19371128946625</v>
+        <v>25.1638328725152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.67804506845533</v>
+        <v>19.58549703165879</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.177187111522267</v>
+        <v>9.745362757741796</v>
       </c>
       <c r="E24">
-        <v>11.25166772774391</v>
+        <v>15.37938281739427</v>
       </c>
       <c r="F24">
-        <v>26.73363385532756</v>
+        <v>33.15398064732853</v>
       </c>
       <c r="G24">
-        <v>2.040050653785512</v>
+        <v>3.635584185582557</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.782669277397218</v>
+        <v>11.10752360535559</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.88119409916653</v>
+        <v>11.56148002170325</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.81384004568683</v>
+        <v>18.74842167617549</v>
       </c>
       <c r="O24">
-        <v>20.99181766720209</v>
+        <v>25.05456614342147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.83724026412203</v>
+        <v>19.07025732658012</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.183902526348472</v>
+        <v>9.765279591684116</v>
       </c>
       <c r="E25">
-        <v>11.11864536284581</v>
+        <v>15.37373319047165</v>
       </c>
       <c r="F25">
-        <v>25.24974315297636</v>
+        <v>33.09912510719557</v>
       </c>
       <c r="G25">
-        <v>2.052408859917507</v>
+        <v>3.640063945741422</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.717525049388649</v>
+        <v>11.10769219638327</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.62210133022981</v>
+        <v>11.18941972295424</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.81935973793088</v>
+        <v>18.78610774956599</v>
       </c>
       <c r="O25">
-        <v>19.71079103714658</v>
+        <v>24.96173164059719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.69052045650762</v>
+        <v>18.38477508435382</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.78185833145368</v>
+        <v>6.193282283822954</v>
       </c>
       <c r="E2">
-        <v>15.37272156341437</v>
+        <v>11.02548552161521</v>
       </c>
       <c r="F2">
-        <v>33.08862196407312</v>
+        <v>24.1985560707791</v>
       </c>
       <c r="G2">
-        <v>3.643637610975123</v>
+        <v>2.061864430536969</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.10974437661918</v>
+        <v>7.672715873505401</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.91022497406259</v>
+        <v>11.61230305178049</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.82105546858823</v>
+        <v>13.84025460596592</v>
       </c>
       <c r="O2">
-        <v>24.9151233548535</v>
+        <v>18.78513317710518</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.43430649547129</v>
+        <v>17.34217119449499</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.794295355105081</v>
+        <v>6.202237478439073</v>
       </c>
       <c r="E3">
-        <v>15.37402584538306</v>
+        <v>10.9654477048744</v>
       </c>
       <c r="F3">
-        <v>33.10013831192594</v>
+        <v>23.51467853992568</v>
       </c>
       <c r="G3">
-        <v>3.64623275787446</v>
+        <v>2.068516356633996</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.11235173796157</v>
+        <v>7.644357000119059</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.71875143154843</v>
+        <v>10.87591591798892</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.84925070062296</v>
+        <v>13.86439001896069</v>
       </c>
       <c r="O3">
-        <v>24.89717123379022</v>
+        <v>18.17154031584677</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.27801891136128</v>
+        <v>16.67442657924235</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.802526863294304</v>
+        <v>6.208969096656823</v>
       </c>
       <c r="E4">
-        <v>15.37581688423965</v>
+        <v>10.9301522889849</v>
       </c>
       <c r="F4">
-        <v>33.11638535905057</v>
+        <v>23.10979550059992</v>
       </c>
       <c r="G4">
-        <v>3.647912149342831</v>
+        <v>2.072727479502216</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.11455741830461</v>
+        <v>7.627949436091325</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.6004293971159</v>
+        <v>10.39803249876708</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.86879421271721</v>
+        <v>13.8839624951143</v>
       </c>
       <c r="O4">
-        <v>24.89288586044524</v>
+        <v>17.80263175196815</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21466068635279</v>
+        <v>16.39560446231761</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.806031285499316</v>
+        <v>6.212015793272781</v>
       </c>
       <c r="E5">
-        <v>15.37679709219353</v>
+        <v>10.91616980731005</v>
       </c>
       <c r="F5">
-        <v>33.12531033098262</v>
+        <v>22.94872275874779</v>
       </c>
       <c r="G5">
-        <v>3.648618201994913</v>
+        <v>2.074476341505749</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.11560904730148</v>
+        <v>7.621518189965632</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.55207803656423</v>
+        <v>10.19681887723241</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.87732049113218</v>
+        <v>13.89310975288154</v>
       </c>
       <c r="O5">
-        <v>24.89283464529509</v>
+        <v>17.65444109239873</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.20416213271962</v>
+        <v>16.34890854421057</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.806622263505705</v>
+        <v>6.212539844306038</v>
       </c>
       <c r="E6">
-        <v>15.37697501419007</v>
+        <v>10.9138724114181</v>
       </c>
       <c r="F6">
-        <v>33.12693136001691</v>
+        <v>22.92221755975551</v>
       </c>
       <c r="G6">
-        <v>3.648736753443352</v>
+        <v>2.074768745132381</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.11579291910952</v>
+        <v>7.620465751043044</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.54404288721049</v>
+        <v>10.16301679390835</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.87877025385351</v>
+        <v>13.89469870663885</v>
       </c>
       <c r="O6">
-        <v>24.89292852306718</v>
+        <v>17.62996862353977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.2771630087646</v>
+        <v>16.67069312323843</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.802573517249195</v>
+        <v>6.209008964857355</v>
       </c>
       <c r="E7">
-        <v>15.37582908825207</v>
+        <v>10.92996208562723</v>
       </c>
       <c r="F7">
-        <v>33.11649640020968</v>
+        <v>23.10760716015696</v>
       </c>
       <c r="G7">
-        <v>3.647921583511941</v>
+        <v>2.072750931312256</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.11457098131693</v>
+        <v>7.627861666734383</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.59977778210158</v>
+        <v>10.39534506045487</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.86890692371</v>
+        <v>13.88408114669326</v>
       </c>
       <c r="O7">
-        <v>24.89287830609027</v>
+        <v>17.80062429662713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.60200728900038</v>
+        <v>18.03112928966712</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.786023319167425</v>
+        <v>6.196109980607161</v>
       </c>
       <c r="E8">
-        <v>15.37296657840088</v>
+        <v>11.0044628822304</v>
       </c>
       <c r="F8">
-        <v>33.09068682916628</v>
+        <v>23.95972539777691</v>
       </c>
       <c r="G8">
-        <v>3.64451461953177</v>
+        <v>2.064132255611748</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.11051831672231</v>
+        <v>7.662730545792189</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.84439515470271</v>
+        <v>11.36373583471861</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.83031463922149</v>
+        <v>13.84757534351902</v>
       </c>
       <c r="O8">
-        <v>24.90753611011766</v>
+        <v>18.57204012061815</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.2440522863444</v>
+        <v>20.47262812942223</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.75827422859083</v>
+        <v>6.180927040505105</v>
       </c>
       <c r="E9">
-        <v>15.37515074120853</v>
+        <v>11.16272539928494</v>
       </c>
       <c r="F9">
-        <v>33.11296295737508</v>
+        <v>25.7435005567202</v>
       </c>
       <c r="G9">
-        <v>3.63851238060577</v>
+        <v>2.048193656446458</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.10733775656572</v>
+        <v>7.738983808930894</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.31569365671576</v>
+        <v>13.05900925715754</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.77229740638588</v>
+        <v>13.81481446407074</v>
       </c>
       <c r="O9">
-        <v>24.98963757735438</v>
+        <v>20.13991005897384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.71466812311204</v>
+        <v>22.12127854890615</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.740733682214438</v>
+        <v>6.176448205045004</v>
       </c>
       <c r="E10">
-        <v>15.38142940715087</v>
+        <v>11.28607062237493</v>
       </c>
       <c r="F10">
-        <v>33.17378474925947</v>
+        <v>27.11461799665208</v>
       </c>
       <c r="G10">
-        <v>3.634511811515067</v>
+        <v>2.037005410263245</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.10786461600533</v>
+        <v>7.799684984836112</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.65375535510399</v>
+        <v>14.18156411519516</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.74038024417421</v>
+        <v>13.81600219310826</v>
       </c>
       <c r="O10">
-        <v>25.08226700299093</v>
+        <v>21.31698983613941</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.92766688003119</v>
+        <v>22.83893859964073</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.733367505365297</v>
+        <v>6.175991732495937</v>
       </c>
       <c r="E11">
-        <v>15.38528318924443</v>
+        <v>11.34365255059568</v>
       </c>
       <c r="F11">
-        <v>33.21107930885669</v>
+        <v>27.75003671157669</v>
       </c>
       <c r="G11">
-        <v>3.632779753137218</v>
+        <v>2.032013317934725</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.10871693483325</v>
+        <v>7.828291398684223</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.80515549335509</v>
+        <v>14.66593989488899</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.72817238924528</v>
+        <v>13.82238544730015</v>
       </c>
       <c r="O11">
-        <v>25.13134645251834</v>
+        <v>21.85653014998044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.00809827319289</v>
+        <v>23.10601363210137</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.730665920756898</v>
+        <v>6.17605882535189</v>
       </c>
       <c r="E12">
-        <v>15.38688442491262</v>
+        <v>11.36566397619963</v>
       </c>
       <c r="F12">
-        <v>33.22658093434428</v>
+        <v>27.9922334484611</v>
       </c>
       <c r="G12">
-        <v>3.632136422564101</v>
+        <v>2.030135566123599</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.10912698153891</v>
+        <v>7.839264828664681</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.86209579518593</v>
+        <v>14.84561991469549</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.72388081860122</v>
+        <v>13.82567343680311</v>
       </c>
       <c r="O12">
-        <v>25.15092105378349</v>
+        <v>22.06133887190422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.99078710805588</v>
+        <v>23.04870311047639</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.731243854578979</v>
+        <v>6.176033486161645</v>
       </c>
       <c r="E13">
-        <v>15.38653328463829</v>
+        <v>11.36091431571202</v>
       </c>
       <c r="F13">
-        <v>33.22318115268625</v>
+        <v>27.94000328259617</v>
       </c>
       <c r="G13">
-        <v>3.632274417648044</v>
+        <v>2.030539434257983</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.10903480126886</v>
+        <v>7.836895270819437</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.8498508466012</v>
+        <v>14.80708842574497</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.72479036929783</v>
+        <v>13.82492608372953</v>
       </c>
       <c r="O13">
-        <v>25.14666147208161</v>
+        <v>22.01720873109696</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.93428895567378</v>
+        <v>22.86100511182811</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.733143486120397</v>
+        <v>6.175992365478771</v>
       </c>
       <c r="E14">
-        <v>15.38541208918039</v>
+        <v>11.34545933400498</v>
       </c>
       <c r="F14">
-        <v>33.21232703606757</v>
+        <v>27.76993127644021</v>
       </c>
       <c r="G14">
-        <v>3.632726574552621</v>
+        <v>2.031858589004599</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.10874892481877</v>
+        <v>7.829191377964352</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.80984812437031</v>
+        <v>14.68079705843243</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.72781268624901</v>
+        <v>13.82263832169721</v>
       </c>
       <c r="O14">
-        <v>25.13293709635976</v>
+        <v>21.87337036214346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.89965064508526</v>
+        <v>22.74542344915253</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.734318492942197</v>
+        <v>6.175998827291266</v>
       </c>
       <c r="E15">
-        <v>15.38474375631184</v>
+        <v>11.33601945080968</v>
       </c>
       <c r="F15">
-        <v>33.20585797612248</v>
+        <v>27.66596002523471</v>
       </c>
       <c r="G15">
-        <v>3.633005167745741</v>
+        <v>2.032668213470459</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.10858516111755</v>
+        <v>7.824490802960506</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.78529290102325</v>
+        <v>14.60295372297003</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.72970705169926</v>
+        <v>13.82135132781898</v>
       </c>
       <c r="O15">
-        <v>25.12465906373698</v>
+        <v>21.7853276241067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.70072022186836</v>
+        <v>22.07372351246099</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.74122738759284</v>
+        <v>6.176510892403595</v>
       </c>
       <c r="E16">
-        <v>15.38119749478643</v>
+        <v>11.2823366552028</v>
       </c>
       <c r="F16">
-        <v>33.17154075607965</v>
+        <v>27.07331774288273</v>
       </c>
       <c r="G16">
-        <v>3.634626767112914</v>
+        <v>2.037333502088901</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.10782117438627</v>
+        <v>7.797835294771986</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.64380878084645</v>
+        <v>14.14938319944957</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.74122447464043</v>
+        <v>13.81570520004391</v>
       </c>
       <c r="O16">
-        <v>25.0791985002446</v>
+        <v>21.28180342940428</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.57835376990933</v>
+        <v>21.65334401938419</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.745622561334304</v>
+        <v>6.177238444364843</v>
       </c>
       <c r="E17">
-        <v>15.37927638390223</v>
+        <v>11.24977693958319</v>
       </c>
       <c r="F17">
-        <v>33.15295057171026</v>
+        <v>26.71266415449685</v>
       </c>
       <c r="G17">
-        <v>3.635644011535038</v>
+        <v>2.040219532634242</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.10750883745862</v>
+        <v>7.781735856386156</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.55636642199453</v>
+        <v>13.8644257689172</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.74888127919852</v>
+        <v>13.81375946291186</v>
       </c>
       <c r="O17">
-        <v>25.05308197035</v>
+        <v>20.97388067116885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.50787361105377</v>
+        <v>21.40851163393564</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.748208277529802</v>
+        <v>6.177804880281196</v>
       </c>
       <c r="E18">
-        <v>15.37826540446192</v>
+        <v>11.2311882313981</v>
       </c>
       <c r="F18">
-        <v>33.14316449370542</v>
+        <v>26.50633099991261</v>
       </c>
       <c r="G18">
-        <v>3.636237373631775</v>
+        <v>2.04188876645029</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.10738690380158</v>
+        <v>7.772569470972217</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.50585007018162</v>
+        <v>13.69804968189582</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.7535029006307</v>
+        <v>13.81318840576822</v>
       </c>
       <c r="O18">
-        <v>25.03871445927373</v>
+        <v>20.79715963943476</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.48399555149814</v>
+        <v>21.32509484796439</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.749093681819474</v>
+        <v>6.178021719968795</v>
       </c>
       <c r="E19">
-        <v>15.37793929454065</v>
+        <v>11.22491842175224</v>
       </c>
       <c r="F19">
-        <v>33.1400069230507</v>
+        <v>26.43666350141505</v>
       </c>
       <c r="G19">
-        <v>3.636439698247918</v>
+        <v>2.042455571804875</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.10735555600121</v>
+        <v>7.769482029514648</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.48870952552934</v>
+        <v>13.64129129453692</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.75510511337101</v>
+        <v>13.81308827243538</v>
       </c>
       <c r="O19">
-        <v>25.03396244634661</v>
+        <v>20.73739473518702</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.59139056876307</v>
+        <v>21.69840924820143</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.745148715361989</v>
+        <v>6.177145594757208</v>
       </c>
       <c r="E20">
-        <v>15.37947117275112</v>
+        <v>11.25322865420979</v>
       </c>
       <c r="F20">
-        <v>33.15483574179868</v>
+        <v>26.75094278069707</v>
       </c>
       <c r="G20">
-        <v>3.635534868695304</v>
+        <v>2.039911360436002</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.10753611884896</v>
+        <v>7.783439998779816</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.56569812785065</v>
+        <v>13.89501599349144</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.74804368325102</v>
+        <v>13.81390964732307</v>
       </c>
       <c r="O20">
-        <v>25.05579449064688</v>
+        <v>21.00662015307952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.95089053212854</v>
+        <v>22.91626398160948</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.732583137377905</v>
+        <v>6.175997823138635</v>
       </c>
       <c r="E21">
-        <v>15.38573757313715</v>
+        <v>11.34999327232745</v>
       </c>
       <c r="F21">
-        <v>33.21547777816394</v>
+        <v>27.81984344226506</v>
       </c>
       <c r="G21">
-        <v>3.632593424695771</v>
+        <v>2.031470789599939</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.10883053106303</v>
+        <v>7.83145039128503</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.82160889689477</v>
+        <v>14.71799315139522</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.72691597662455</v>
+        <v>13.8232864114397</v>
       </c>
       <c r="O21">
-        <v>25.13694150770486</v>
+        <v>21.91560629529001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.18449269115672</v>
+        <v>23.68487822052676</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.724882571674714</v>
+        <v>6.176653326250457</v>
       </c>
       <c r="E22">
-        <v>15.39065933824172</v>
+        <v>11.41443585567048</v>
       </c>
       <c r="F22">
-        <v>33.26314503320802</v>
+        <v>28.52759621003426</v>
       </c>
       <c r="G22">
-        <v>3.630744213609582</v>
+        <v>2.026027374433814</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.11018492681403</v>
+        <v>7.863647956290981</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.98655789169028</v>
+        <v>15.23406213557196</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.71503821133511</v>
+        <v>13.83450517079882</v>
       </c>
       <c r="O22">
-        <v>25.19573691848374</v>
+        <v>22.51255200428655</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.05996115704881</v>
+        <v>23.27716202714203</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.728945792855846</v>
+        <v>6.17617026679424</v>
       </c>
       <c r="E23">
-        <v>15.3879574152683</v>
+        <v>11.37993319764263</v>
       </c>
       <c r="F23">
-        <v>33.236971161281</v>
+        <v>28.14904453531206</v>
       </c>
       <c r="G23">
-        <v>3.631724496969514</v>
+        <v>2.028926433156725</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.10941580898575</v>
+        <v>7.846389063331941</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.89874764918817</v>
+        <v>14.96060723721387</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.72120133810091</v>
+        <v>13.82804137396044</v>
       </c>
       <c r="O23">
-        <v>25.1638328725152</v>
+        <v>22.19371128946628</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.58549703165879</v>
+        <v>21.67804506845531</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.745362757741796</v>
+        <v>6.177187111522396</v>
       </c>
       <c r="E24">
-        <v>15.37938281739427</v>
+        <v>11.25166772774416</v>
       </c>
       <c r="F24">
-        <v>33.15398064732853</v>
+        <v>26.73363385532762</v>
       </c>
       <c r="G24">
-        <v>3.635584185582557</v>
+        <v>2.040050653785511</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.10752360535559</v>
+        <v>7.782669277397311</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.56148002170325</v>
+        <v>13.88119409916648</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.74842167617549</v>
+        <v>13.81384004568687</v>
       </c>
       <c r="O24">
-        <v>25.05456614342147</v>
+        <v>20.99181766720212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.07025732658012</v>
+        <v>19.83724026412202</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.765279591684116</v>
+        <v>6.183902526348275</v>
       </c>
       <c r="E25">
-        <v>15.37373319047165</v>
+        <v>11.11864536284581</v>
       </c>
       <c r="F25">
-        <v>33.09912510719557</v>
+        <v>25.24974315297627</v>
       </c>
       <c r="G25">
-        <v>3.640063945741422</v>
+        <v>2.052408859917511</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.10769219638327</v>
+        <v>7.717525049388742</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.18941972295424</v>
+        <v>12.62210133022978</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.78610774956599</v>
+        <v>13.81935973793085</v>
       </c>
       <c r="O25">
-        <v>24.96173164059719</v>
+        <v>19.71079103714656</v>
       </c>
     </row>
   </sheetData>
